--- a/反復計画書_LV50.xlsx
+++ b/反復計画書_LV50.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF710B57-2447-4689-902C-34B3A4FF098B}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{384AD7DB-C0EB-4A1D-B208-EEC1637D9659}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
     <sheet name="三目並べ" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -446,6 +446,10 @@
     <t>3日間</t>
   </si>
   <si>
+    <t>三目並べゲームで結果をデータベースに出力する機能を作る
+対戦結果と履歴が表示される</t>
+  </si>
+  <si>
     <t>反復計画書(新規作成)
 WBS&amp;ガントチャート(新規作成)
 要求仕様書(新規作成)
@@ -453,10 +457,6 @@
 設計仕様書(新規作成)
 テスト計画書(新規作成)
 テスト済のソースコード(新規作成)</t>
-  </si>
-  <si>
-    <t>三目並べゲームで結果をファイルに出力する機能を作る
-対戦結果と履歴が表示される</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1314,11 +1314,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1">
@@ -1519,16 +1519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5">
@@ -1639,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="135" customHeight="1">
@@ -1648,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>20</v>
@@ -1726,18 +1726,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1925,36 +1925,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F85FAFE-29F9-480B-BBF7-B82BA9A78B36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F85FAFE-29F9-480B-BBF7-B82BA9A78B36}"/>
 </file>
--- a/反復計画書_LV50.xlsx
+++ b/反復計画書_LV50.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{384AD7DB-C0EB-4A1D-B208-EEC1637D9659}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CA587D-C953-4FEE-B402-761C5303B65C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
     <sheet name="三目並べ" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -446,8 +444,11 @@
     <t>3日間</t>
   </si>
   <si>
-    <t>三目並べゲームで結果をデータベースに出力する機能を作る
-対戦結果と履歴が表示される</t>
+    <t>6日間</t>
+    <rPh sb="1" eb="3">
+      <t>ニチアイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>反復計画書(新規作成)
@@ -457,6 +458,12 @@
 設計仕様書(新規作成)
 テスト計画書(新規作成)
 テスト済のソースコード(新規作成)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三目並べゲームで結果をファイル出力する機能を作る
+対戦結果と履歴が表示される</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -466,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -838,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +974,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,7 +1002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,16 +1328,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1348,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="41"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1341,7 +1357,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1350,14 +1366,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -1387,7 +1403,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>9</v>
@@ -1402,7 +1418,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>10</v>
@@ -1417,7 +1433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>14</v>
@@ -1432,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
@@ -1447,7 +1463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>22</v>
@@ -1456,7 +1472,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +1483,7 @@
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>9</v>
@@ -1476,7 +1492,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>10</v>
@@ -1485,7 +1501,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>18</v>
@@ -1494,7 +1510,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>22</v>
@@ -1519,19 +1535,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1558,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="41"/>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -1551,7 +1567,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
         <v>26</v>
@@ -1560,14 +1576,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -1597,7 +1613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>9</v>
@@ -1612,7 +1628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>10</v>
@@ -1627,7 +1643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>14</v>
@@ -1639,10 +1655,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>18</v>
@@ -1657,7 +1673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>22</v>
@@ -1666,45 +1682,55 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="43">
+        <v>43984</v>
+      </c>
+      <c r="D12" s="43">
+        <v>43991</v>
+      </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="32">
+        <v>43991</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="44" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="45" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>22</v>
@@ -1735,12 +1761,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1924,14 +1944,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F85FAFE-29F9-480B-BBF7-B82BA9A78B36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F85FAFE-29F9-480B-BBF7-B82BA9A78B36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>